--- a/data/trans_orig/P1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6654</v>
+        <v>6615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23257</v>
+        <v>23631</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02596700969177703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01346875699649775</v>
+        <v>0.01338947109463529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04707329112440686</v>
+        <v>0.04783041132554638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>12628</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6316</v>
+        <v>6604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20463</v>
+        <v>20560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02701343413545223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01351065089152915</v>
+        <v>0.01412747602709659</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04377258927691061</v>
+        <v>0.04397960642045758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>25458</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17245</v>
+        <v>17109</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37974</v>
+        <v>38362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0264757617145534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01793414169010949</v>
+        <v>0.01779306476124827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03949273521218042</v>
+        <v>0.03989579091362834</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>481235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470807</v>
+        <v>470433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487410</v>
+        <v>487449</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.974032990308223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9529267088755929</v>
+        <v>0.9521695886744536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.986531243003502</v>
+        <v>0.9866105289053646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>476</v>
@@ -836,19 +836,19 @@
         <v>454861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447026</v>
+        <v>446929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461173</v>
+        <v>460885</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9729865658645478</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9562274107230894</v>
+        <v>0.9560203935795424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9864893491084709</v>
+        <v>0.9858725239729034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>964</v>
@@ -857,19 +857,19 @@
         <v>936095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>923579</v>
+        <v>923191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>944308</v>
+        <v>944444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9735242382854467</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9605072647878194</v>
+        <v>0.9601042090863716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9820658583098905</v>
+        <v>0.9822069352387517</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16107</v>
+        <v>16122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36110</v>
+        <v>34828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03278018331352442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02189929394368833</v>
+        <v>0.02192040627281908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04909700615247328</v>
+        <v>0.04735404096162182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -982,19 +982,19 @@
         <v>45525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32683</v>
+        <v>33879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60204</v>
+        <v>59403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07278271110941023</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05225139696760264</v>
+        <v>0.05416379201187921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09625086918004069</v>
+        <v>0.09496984887431613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -1003,19 +1003,19 @@
         <v>69635</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55210</v>
+        <v>55059</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88439</v>
+        <v>88020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05116494225490537</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04056631136670104</v>
+        <v>0.04045523261104229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0649819777192714</v>
+        <v>0.06467369013713305</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>711380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>699379</v>
+        <v>700661</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>719382</v>
+        <v>719367</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9672198166864756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9509029938475265</v>
+        <v>0.9526459590383781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9781007060563115</v>
+        <v>0.9780795937271809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>549</v>
@@ -1053,19 +1053,19 @@
         <v>579969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>565290</v>
+        <v>566091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592811</v>
+        <v>591615</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9272172888905897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9037491308199593</v>
+        <v>0.9050301511256843</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9477486030323975</v>
+        <v>0.945836207988121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1228</v>
@@ -1074,19 +1074,19 @@
         <v>1291347</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1272543</v>
+        <v>1272962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1305772</v>
+        <v>1305923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9488350577450946</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9350180222807286</v>
+        <v>0.9353263098628669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.959433688633299</v>
+        <v>0.9595447673889577</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17315</v>
+        <v>16927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38474</v>
+        <v>39037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04136884156633579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02711162299382639</v>
+        <v>0.02650287856140039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06024065685499425</v>
+        <v>0.06112183537280866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>46556</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33761</v>
+        <v>34607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60726</v>
+        <v>61578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0674970476732797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04894736426083578</v>
+        <v>0.05017399195418217</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08804136907202213</v>
+        <v>0.08927679745708841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -1220,19 +1220,19 @@
         <v>72977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57623</v>
+        <v>56779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92586</v>
+        <v>90662</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05493525186914073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04337749241746831</v>
+        <v>0.04274175033542581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06969680661270659</v>
+        <v>0.0682482915121965</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>612247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600194</v>
+        <v>599631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621353</v>
+        <v>621741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9586311584336642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9397593431450049</v>
+        <v>0.9388781646271914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9728883770061735</v>
+        <v>0.9734971214385997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -1270,19 +1270,19 @@
         <v>643188</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>629018</v>
+        <v>628166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655983</v>
+        <v>655137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9325029523267203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9119586309279774</v>
+        <v>0.9107232025429113</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9510526357391639</v>
+        <v>0.9498260080458177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1203</v>
@@ -1291,19 +1291,19 @@
         <v>1255435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1235826</v>
+        <v>1237750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1270789</v>
+        <v>1271633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9450647481308593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9303031933872935</v>
+        <v>0.9317517084878035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9566225075825318</v>
+        <v>0.9572582496645742</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>32423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22595</v>
+        <v>22993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45591</v>
+        <v>47830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06245380527478664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04352294685817691</v>
+        <v>0.04429074134420226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08781931658385683</v>
+        <v>0.09213274893122791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1416,19 +1416,19 @@
         <v>58070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43854</v>
+        <v>45682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72277</v>
+        <v>72350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1126171733209802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08504641152392141</v>
+        <v>0.08859159139748098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1401694189405421</v>
+        <v>0.1403109878143137</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -1437,19 +1437,19 @@
         <v>90493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73441</v>
+        <v>73122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110121</v>
+        <v>110542</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0874505322454532</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07097236050367182</v>
+        <v>0.07066410792644792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1064184112087865</v>
+        <v>0.1068259142599297</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>486724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473556</v>
+        <v>471317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496552</v>
+        <v>496154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9375461947252134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9121806834161431</v>
+        <v>0.9078672510687733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9564770531418229</v>
+        <v>0.9557092586557979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -1487,19 +1487,19 @@
         <v>457572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>443365</v>
+        <v>443292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471788</v>
+        <v>469960</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8873828266790198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8598305810594578</v>
+        <v>0.8596890121856861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9149535884760785</v>
+        <v>0.911408408602519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>899</v>
@@ -1508,19 +1508,19 @@
         <v>944296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924668</v>
+        <v>924247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>961348</v>
+        <v>961667</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9125494677545468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8935815887912137</v>
+        <v>0.8931740857400701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9290276394963282</v>
+        <v>0.9293358920735521</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>32190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23176</v>
+        <v>22541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43570</v>
+        <v>43157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08324074681605148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05993167462282443</v>
+        <v>0.05828978252113073</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1126675302062995</v>
+        <v>0.1116013735002678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1633,19 +1633,19 @@
         <v>44571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33478</v>
+        <v>33612</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57819</v>
+        <v>58428</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.110329131108426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08286912531315657</v>
+        <v>0.0831997901769319</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1431204426032748</v>
+        <v>0.1446284142839323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1654,19 +1654,19 @@
         <v>76761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60890</v>
+        <v>61164</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95857</v>
+        <v>92275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09708086647191971</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07700791918243663</v>
+        <v>0.07735458328563316</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1212316291549107</v>
+        <v>0.1167014868973395</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>354520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343140</v>
+        <v>343553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>363534</v>
+        <v>364169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9167592531839486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8873324697937007</v>
+        <v>0.8883986264997321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9400683253771756</v>
+        <v>0.9417102174788693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>351</v>
@@ -1704,19 +1704,19 @@
         <v>359415</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>346167</v>
+        <v>345558</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>370508</v>
+        <v>370374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.889670868891574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8568795573967253</v>
+        <v>0.8553715857160679</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9171308746868435</v>
+        <v>0.9168002098230683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>709</v>
@@ -1725,19 +1725,19 @@
         <v>713935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>694839</v>
+        <v>698421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>729806</v>
+        <v>729532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9029191335280803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8787683708450893</v>
+        <v>0.8832985131026605</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9229920808175633</v>
+        <v>0.9226454167143668</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>35073</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24773</v>
+        <v>25052</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46590</v>
+        <v>47368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1198730908820713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08466863722594122</v>
+        <v>0.08562206215527983</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1592360501715846</v>
+        <v>0.1618959283509192</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1850,19 +1850,19 @@
         <v>48607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37293</v>
+        <v>37041</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61124</v>
+        <v>61662</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1417385320588998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1087463318144623</v>
+        <v>0.1080134248821126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.178239159010228</v>
+        <v>0.1798076170847096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -1871,19 +1871,19 @@
         <v>83680</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68421</v>
+        <v>68446</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100269</v>
+        <v>100644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1316719934952965</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1076613503633476</v>
+        <v>0.1077012203046443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1577747786753248</v>
+        <v>0.1583651080004168</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>257510</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245993</v>
+        <v>245215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267810</v>
+        <v>267531</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8801269091179287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8407639498284154</v>
+        <v>0.8381040716490799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9153313627740587</v>
+        <v>0.9143779378447184</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>319</v>
@@ -1921,19 +1921,19 @@
         <v>294327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281810</v>
+        <v>281272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305641</v>
+        <v>305893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8582614679411001</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8217608409897721</v>
+        <v>0.8201923829152904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8912536681855378</v>
+        <v>0.8919865751178873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>585</v>
@@ -1942,19 +1942,19 @@
         <v>551837</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535248</v>
+        <v>534873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>567096</v>
+        <v>567071</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8683280065047035</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8422252213246754</v>
+        <v>0.8416348919995832</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8923386496366524</v>
+        <v>0.8922987796953559</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>35193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26160</v>
+        <v>25863</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46082</v>
+        <v>46683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1676798875571403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1246393490500369</v>
+        <v>0.1232267979416294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2195622761540558</v>
+        <v>0.2224255240548044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2067,19 +2067,19 @@
         <v>62317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47422</v>
+        <v>47795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78561</v>
+        <v>77958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1866297520668339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1420216801997933</v>
+        <v>0.1431379241430287</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2352762356643623</v>
+        <v>0.2334715604109717</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2088,19 +2088,19 @@
         <v>97510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80797</v>
+        <v>82197</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117912</v>
+        <v>117331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1793158124318697</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1485812108563903</v>
+        <v>0.1511559319036445</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2168335314900025</v>
+        <v>0.2157645427383847</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>174690</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>163801</v>
+        <v>163200</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183723</v>
+        <v>184020</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8323201124428597</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7804377238459442</v>
+        <v>0.7775744759451954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8753606509499631</v>
+        <v>0.8767732020583701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -2138,19 +2138,19 @@
         <v>271591</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>255347</v>
+        <v>255950</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>286486</v>
+        <v>286113</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.813370247933166</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7647237643356376</v>
+        <v>0.7665284395890284</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8579783198002067</v>
+        <v>0.8568620758569713</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>419</v>
@@ -2159,19 +2159,19 @@
         <v>446281</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>425879</v>
+        <v>426460</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>462994</v>
+        <v>461594</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8206841875681303</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7831664685099976</v>
+        <v>0.7842354572616158</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8514187891436098</v>
+        <v>0.8488440680963557</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>198238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06050232505040523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>308</v>
@@ -2284,19 +2284,19 @@
         <v>318275</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09418657804059452</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>504</v>
@@ -2305,19 +2305,19 @@
         <v>516514</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0776042139872592</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3078305</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3050038</v>
+        <v>3050920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3103961</v>
+        <v>3105270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9394976749495948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9308707474721263</v>
+        <v>0.9311398394145648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9473280441211561</v>
+        <v>0.9477275984847151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2989</v>
@@ -2355,19 +2355,19 @@
         <v>3060922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3026487</v>
+        <v>3023544</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3093065</v>
+        <v>3091474</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9058134219594055</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8956230791783869</v>
+        <v>0.8947523566417767</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9153253394593398</v>
+        <v>0.9148547104230352</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6007</v>
@@ -2376,19 +2376,19 @@
         <v>6139227</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6093938</v>
+        <v>6096119</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6180839</v>
+        <v>6185724</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9223957860127407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9155911999751678</v>
+        <v>0.9159188877325688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9286477181021235</v>
+        <v>0.9293817101491247</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>9197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4323</v>
+        <v>4785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16051</v>
+        <v>16285</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02025132267729865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009518701596180549</v>
+        <v>0.01053518541495399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03534329246800441</v>
+        <v>0.03585790006739645</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2744,19 +2744,19 @@
         <v>19528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11570</v>
+        <v>11915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29841</v>
+        <v>30774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04538912059338137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02689245407180246</v>
+        <v>0.02769361475841442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06935959259757074</v>
+        <v>0.07152851099331287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2765,19 +2765,19 @@
         <v>28725</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19437</v>
+        <v>19703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40787</v>
+        <v>41292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03248031849614968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02197795639446636</v>
+        <v>0.02227876266644053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04611939103527552</v>
+        <v>0.04669111108988125</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>444949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438095</v>
+        <v>437861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449823</v>
+        <v>449361</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9797486773227013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9646567075319936</v>
+        <v>0.9641420999326035</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9904812984038193</v>
+        <v>0.9894648145850459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -2815,19 +2815,19 @@
         <v>410702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>400389</v>
+        <v>399456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>418660</v>
+        <v>418315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9546108794066186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9306404074024285</v>
+        <v>0.9284714890066871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9731075459281974</v>
+        <v>0.9723063852415854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>838</v>
@@ -2836,19 +2836,19 @@
         <v>855651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>843589</v>
+        <v>843084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>864939</v>
+        <v>864673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9675196815038504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9538806089647245</v>
+        <v>0.9533088889101187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780220436055336</v>
+        <v>0.9777212373335594</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>20235</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12690</v>
+        <v>12177</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32642</v>
+        <v>32176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02945069341876525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01846977028354873</v>
+        <v>0.01772207075921709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04750778312959917</v>
+        <v>0.04682986086224264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2961,19 +2961,19 @@
         <v>33271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22871</v>
+        <v>21710</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46540</v>
+        <v>44621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05452061599142997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03747769072290268</v>
+        <v>0.03557485426816431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07626313334065589</v>
+        <v>0.07311874913201721</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -2982,19 +2982,19 @@
         <v>53507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40829</v>
+        <v>40245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72393</v>
+        <v>70591</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0412433052021596</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03147114092218076</v>
+        <v>0.03102088677007013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.055800853802001</v>
+        <v>0.05441188465334789</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>666852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>654445</v>
+        <v>654911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>674397</v>
+        <v>674910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705493065812347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9524922168704014</v>
+        <v>0.9531701391377568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9815302297164514</v>
+        <v>0.9822779292407812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>541</v>
@@ -3032,19 +3032,19 @@
         <v>576984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>563715</v>
+        <v>565634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>587384</v>
+        <v>588545</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.94547938400857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9237368666593442</v>
+        <v>0.9268812508679827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9625223092770974</v>
+        <v>0.9644251457318356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1190</v>
@@ -3053,19 +3053,19 @@
         <v>1243835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1224949</v>
+        <v>1226751</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1256513</v>
+        <v>1257097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9587566947978404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9441991461979991</v>
+        <v>0.9455881153466522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9685288590778193</v>
+        <v>0.96897911322993</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>37264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26162</v>
+        <v>26006</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51987</v>
+        <v>50794</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05472501621615999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03842081411413948</v>
+        <v>0.03819233871394657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0763472936230857</v>
+        <v>0.07459544661424601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3178,19 +3178,19 @@
         <v>82177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65750</v>
+        <v>64577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101060</v>
+        <v>100179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.11560405606824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09249489221369334</v>
+        <v>0.09084452001259931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.142167636061193</v>
+        <v>0.1409288272313407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -3199,19 +3199,19 @@
         <v>119441</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98484</v>
+        <v>98788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142612</v>
+        <v>143105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08581900420183002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07076123590732027</v>
+        <v>0.07098010318384372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1024674877309986</v>
+        <v>0.1028218660730969</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>643662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628939</v>
+        <v>630132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654764</v>
+        <v>654920</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.94527498378384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9236527063769142</v>
+        <v>0.9254045533857543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9615791858858604</v>
+        <v>0.9618076612860534</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -3249,19 +3249,19 @@
         <v>628673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609790</v>
+        <v>610671</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>645100</v>
+        <v>646273</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.88439594393176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8578323639388069</v>
+        <v>0.8590711727686592</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9075051077863067</v>
+        <v>0.9091554799874006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1206</v>
@@ -3270,19 +3270,19 @@
         <v>1272334</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1249163</v>
+        <v>1248670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293291</v>
+        <v>1292987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.91418099579817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8975325122690013</v>
+        <v>0.897178133926903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9292387640926797</v>
+        <v>0.9290198968161563</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>41957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30731</v>
+        <v>30157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57611</v>
+        <v>57006</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06838258034604716</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05008633800607423</v>
+        <v>0.04914990618117086</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09389581551832366</v>
+        <v>0.09290988175433332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3395,19 +3395,19 @@
         <v>83197</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64705</v>
+        <v>65211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102523</v>
+        <v>102148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1350169627293181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1050066141465585</v>
+        <v>0.1058270263663337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1663790034807864</v>
+        <v>0.1657713319281852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -3416,19 +3416,19 @@
         <v>125154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105004</v>
+        <v>103840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149318</v>
+        <v>151346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1017711920503012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08538601883871694</v>
+        <v>0.08443872247085829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1214203672614549</v>
+        <v>0.1230693496238297</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>571606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>555952</v>
+        <v>556557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>582832</v>
+        <v>583406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9316174196539528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9061041844816764</v>
+        <v>0.9070901182456668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9499136619939258</v>
+        <v>0.9508500938188295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>464</v>
@@ -3466,19 +3466,19 @@
         <v>533002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>513676</v>
+        <v>514051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>551494</v>
+        <v>550988</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8649830372706818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.833620996519214</v>
+        <v>0.8342286680718148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8949933858534416</v>
+        <v>0.8941729736336663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>974</v>
@@ -3487,19 +3487,19 @@
         <v>1104608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1080444</v>
+        <v>1078416</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1124758</v>
+        <v>1125922</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8982288079496987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8785796327385451</v>
+        <v>0.8769306503761704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.914613981161283</v>
+        <v>0.9155612775291417</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>41599</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30759</v>
+        <v>30035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56111</v>
+        <v>55264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09687022981053216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07162843252006963</v>
+        <v>0.06994205292085945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1306645955954531</v>
+        <v>0.1286910748742467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -3612,19 +3612,19 @@
         <v>91941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74733</v>
+        <v>75325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111870</v>
+        <v>109181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2058024214725332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1672827739371311</v>
+        <v>0.1686091791976789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2504110911684616</v>
+        <v>0.2443912445029977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -3633,19 +3633,19 @@
         <v>133540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112464</v>
+        <v>112434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155621</v>
+        <v>155241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1524127492893513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1283577777896561</v>
+        <v>0.1283241200967923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1776145150201987</v>
+        <v>0.1771800223868152</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>387830</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>373318</v>
+        <v>374165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>398670</v>
+        <v>399394</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9031297701894678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8693354044045467</v>
+        <v>0.871308925125753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9283715674799302</v>
+        <v>0.9300579470791402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -3683,19 +3683,19 @@
         <v>354804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>334875</v>
+        <v>337564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>372012</v>
+        <v>371420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7941975785274668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7495889088315384</v>
+        <v>0.7556087554970022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8327172260628696</v>
+        <v>0.8313908208023209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>672</v>
@@ -3704,19 +3704,19 @@
         <v>742634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>720553</v>
+        <v>720933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>763710</v>
+        <v>763740</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8475872507106488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8223854849798011</v>
+        <v>0.8228199776131845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8716422222103438</v>
+        <v>0.8716758799032077</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>37403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26118</v>
+        <v>25838</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51224</v>
+        <v>50467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1207382856145252</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08431001719294844</v>
+        <v>0.08340514225960188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1653522605832087</v>
+        <v>0.1629095972088441</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -3829,19 +3829,19 @@
         <v>81240</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66663</v>
+        <v>65601</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97618</v>
+        <v>96107</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2301090416253105</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1888202416806731</v>
+        <v>0.1858111025294592</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2764971063651193</v>
+        <v>0.2722192600046548</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -3850,19 +3850,19 @@
         <v>118643</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99999</v>
+        <v>98857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139499</v>
+        <v>139996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1789930843237948</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1508645307592134</v>
+        <v>0.1491422299407664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2104576763784152</v>
+        <v>0.2112078229011005</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>272383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258562</v>
+        <v>259319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283668</v>
+        <v>283948</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8792617143854748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8346477394167914</v>
+        <v>0.837090402791156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9156899828070516</v>
+        <v>0.9165948577403981</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>262</v>
@@ -3900,19 +3900,19 @@
         <v>271811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255433</v>
+        <v>256944</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>286388</v>
+        <v>287450</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7698909583746895</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7235028936348813</v>
+        <v>0.7277807399953452</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8111797583193271</v>
+        <v>0.8141888974705408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -3921,19 +3921,19 @@
         <v>544194</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>523338</v>
+        <v>522841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>562838</v>
+        <v>563980</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8210069156762052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7895423236215847</v>
+        <v>0.7887921770988995</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8491354692407865</v>
+        <v>0.8508577700592336</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>55008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42510</v>
+        <v>42367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71731</v>
+        <v>70860</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2201622861606502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1701424453125367</v>
+        <v>0.1695709252356585</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2870945362003171</v>
+        <v>0.2836102115762062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -4046,19 +4046,19 @@
         <v>129389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111486</v>
+        <v>110751</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>149252</v>
+        <v>150437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.332637856884574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2866128442786877</v>
+        <v>0.2847228607896182</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3837032110577789</v>
+        <v>0.3867473213396057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -4067,19 +4067,19 @@
         <v>184397</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159746</v>
+        <v>162853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>210357</v>
+        <v>211469</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2886478691134039</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.250060620729521</v>
+        <v>0.2549232647961654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3292847492450049</v>
+        <v>0.3310258375377608</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>194843</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178120</v>
+        <v>178991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207341</v>
+        <v>207484</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7798377138393497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7129054637996832</v>
+        <v>0.7163897884237937</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8298575546874633</v>
+        <v>0.8304290747643416</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>234</v>
@@ -4117,19 +4117,19 @@
         <v>259590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>239727</v>
+        <v>238542</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>277493</v>
+        <v>278228</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.667362143115426</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6162967889422211</v>
+        <v>0.6132526786603941</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7133871557213123</v>
+        <v>0.7152771392103817</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>409</v>
@@ -4138,19 +4138,19 @@
         <v>454433</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>428473</v>
+        <v>427361</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>479084</v>
+        <v>475977</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7113521308865961</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6707152507549953</v>
+        <v>0.6689741624622391</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.749939379270479</v>
+        <v>0.7450767352038346</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>242663</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07085478446367585</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>483</v>
@@ -4263,19 +4263,19 @@
         <v>520744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1464282888609935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>703</v>
@@ -4284,19 +4284,19 @@
         <v>763407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.109353423541937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3182125</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3147271</v>
+        <v>3148198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3212957</v>
+        <v>3212112</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9291452155363241</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.918968268096868</v>
+        <v>0.9192387577238356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9381477525954279</v>
+        <v>0.9379009524592917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2813</v>
@@ -4334,19 +4334,19 @@
         <v>3035565</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2989135</v>
+        <v>2993600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3075691</v>
+        <v>3083704</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8535717111390065</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8405161171252167</v>
+        <v>0.8417717567881352</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8648549453898514</v>
+        <v>0.86710791174329</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5800</v>
@@ -4355,19 +4355,19 @@
         <v>6217690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6159633</v>
+        <v>6164078</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6270795</v>
+        <v>6272535</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.890646576458063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8823302739708214</v>
+        <v>0.8829669903538488</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8982535747905356</v>
+        <v>0.8985027787100199</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>9792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4927</v>
+        <v>4373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17754</v>
+        <v>17434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0233436252404059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01174660826490836</v>
+        <v>0.01042523150057253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04232478989069893</v>
+        <v>0.04156187128046591</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4723,19 +4723,19 @@
         <v>12295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6773</v>
+        <v>6771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21613</v>
+        <v>22027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03106657244320969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01711446996047829</v>
+        <v>0.01710824971063413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05461256636018416</v>
+        <v>0.0556587081445057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4744,19 +4744,19 @@
         <v>22087</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14850</v>
+        <v>14205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33696</v>
+        <v>33672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02709280029247773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0182154620074226</v>
+        <v>0.01742452860380824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0413341993768704</v>
+        <v>0.04130439286310162</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>409671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401709</v>
+        <v>402029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414536</v>
+        <v>415090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766563747595941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9576752101093013</v>
+        <v>0.9584381287195337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9882533917350916</v>
+        <v>0.9895747684994274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -4794,19 +4794,19 @@
         <v>383460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374142</v>
+        <v>373728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388982</v>
+        <v>388984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9689334275567903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9453874336398159</v>
+        <v>0.9443412918554943</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9828855300395217</v>
+        <v>0.9828917502893658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>776</v>
@@ -4815,19 +4815,19 @@
         <v>793131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>781522</v>
+        <v>781546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>800368</v>
+        <v>801013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9729071997075223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9586658006231297</v>
+        <v>0.9586956071368984</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9817845379925774</v>
+        <v>0.9825754713961917</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>26031</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16914</v>
+        <v>17301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38650</v>
+        <v>39102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04408264701850196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02864318557431513</v>
+        <v>0.02929829099560017</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06545427127714432</v>
+        <v>0.06621857032511841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -4940,19 +4940,19 @@
         <v>26195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17345</v>
+        <v>17594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36397</v>
+        <v>36711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04648262342129453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0307778347816795</v>
+        <v>0.03122063996746754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06458586099453772</v>
+        <v>0.06514336211642807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -4961,19 +4961,19 @@
         <v>52226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38716</v>
+        <v>39673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65760</v>
+        <v>67562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04525460952105552</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03354812658349848</v>
+        <v>0.03437743399168569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05698208195224576</v>
+        <v>0.05854431215793995</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>564465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>551846</v>
+        <v>551394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>573582</v>
+        <v>573195</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.955917352981498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9345457287228557</v>
+        <v>0.9337814296748816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9713568144256849</v>
+        <v>0.9707017090043998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -5011,19 +5011,19 @@
         <v>537349</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>527147</v>
+        <v>526833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>546199</v>
+        <v>545950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9535173765787055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9354141390054622</v>
+        <v>0.934856637883572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9692221652183205</v>
+        <v>0.9687793600325324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1095</v>
@@ -5032,19 +5032,19 @@
         <v>1101814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1088280</v>
+        <v>1086478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1115324</v>
+        <v>1114367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9547453904789445</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9430179180477543</v>
+        <v>0.94145568784206</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9664518734165016</v>
+        <v>0.9656225660083143</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>31704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21655</v>
+        <v>21074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45518</v>
+        <v>44626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04738326765133984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03236442000291719</v>
+        <v>0.03149608632225086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06802956110789239</v>
+        <v>0.06669639317641775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5157,19 +5157,19 @@
         <v>44699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33824</v>
+        <v>33394</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57380</v>
+        <v>59995</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06758409112397264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05114039356860832</v>
+        <v>0.05049115449560961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08675670743383805</v>
+        <v>0.09071073857101594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -5178,19 +5178,19 @@
         <v>76403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61314</v>
+        <v>59858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94710</v>
+        <v>94925</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05742514551075409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04608376053215232</v>
+        <v>0.04498979585309546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07118448746287233</v>
+        <v>0.07134642422983982</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>637393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623579</v>
+        <v>624471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>647442</v>
+        <v>648023</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9526167323486602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.931970438892108</v>
+        <v>0.9333036068235823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9676355799970828</v>
+        <v>0.9685039136777492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -5228,19 +5228,19 @@
         <v>616687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>604006</v>
+        <v>601391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>627562</v>
+        <v>627992</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9324159088760273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.913243292566162</v>
+        <v>0.9092892614289845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9488596064313917</v>
+        <v>0.9495088455043905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1229</v>
@@ -5249,19 +5249,19 @@
         <v>1254080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1235773</v>
+        <v>1235558</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1269169</v>
+        <v>1270625</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9425748544892459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9288155125371276</v>
+        <v>0.9286535757701602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9539162394678476</v>
+        <v>0.9550102041469045</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>44521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32261</v>
+        <v>32363</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62042</v>
+        <v>59700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06891249569242086</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0499354614809474</v>
+        <v>0.05009341896573304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09603307855451283</v>
+        <v>0.09240755863596045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -5374,19 +5374,19 @@
         <v>67558</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52699</v>
+        <v>52675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85428</v>
+        <v>83593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1040828741538373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08119012663137945</v>
+        <v>0.08115324346757857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1316150987501165</v>
+        <v>0.1287878763174266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -5395,19 +5395,19 @@
         <v>112079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91810</v>
+        <v>92531</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133028</v>
+        <v>133861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08653880775878535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07088920725094676</v>
+        <v>0.07144536474608082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1027144883790981</v>
+        <v>0.1033572606881952</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>601527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>584006</v>
+        <v>586348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613787</v>
+        <v>613685</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9310875043075791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.903966921445487</v>
+        <v>0.9075924413640396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9500645385190525</v>
+        <v>0.9499065810342671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>538</v>
@@ -5445,19 +5445,19 @@
         <v>581519</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563649</v>
+        <v>565484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>596378</v>
+        <v>596402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8959171258461627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8683849012498837</v>
+        <v>0.8712121236825733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9188098733686206</v>
+        <v>0.9188467565324213</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1080</v>
@@ -5466,19 +5466,19 @@
         <v>1183046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1162097</v>
+        <v>1161264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1203315</v>
+        <v>1202594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9134611922412147</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8972855116209019</v>
+        <v>0.8966427393118047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9291107927490533</v>
+        <v>0.9285546352539193</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>32685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22632</v>
+        <v>23140</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46550</v>
+        <v>45772</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06839123957921921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04735543608333439</v>
+        <v>0.04841735899702492</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09740215364512432</v>
+        <v>0.09577369944553982</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -5591,19 +5591,19 @@
         <v>88483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71437</v>
+        <v>72508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107318</v>
+        <v>107447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1780885573544919</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.143779688326765</v>
+        <v>0.1459351166807857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2159969118924945</v>
+        <v>0.2162576761307385</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -5612,19 +5612,19 @@
         <v>121169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99830</v>
+        <v>100324</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141581</v>
+        <v>144376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1243051172539515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1024145149314315</v>
+        <v>0.1029207642774617</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1452462094450636</v>
+        <v>0.1481132127321929</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>445233</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>431368</v>
+        <v>432146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>455286</v>
+        <v>454778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9316087604207808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9025978463548756</v>
+        <v>0.9042263005544601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9526445639166656</v>
+        <v>0.9515826410029751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -5662,19 +5662,19 @@
         <v>408366</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>389531</v>
+        <v>389402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>425412</v>
+        <v>424341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8219114426455081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7840030881075055</v>
+        <v>0.7837423238692616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.856220311673235</v>
+        <v>0.8540648833192143</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -5683,19 +5683,19 @@
         <v>853598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>833186</v>
+        <v>830391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>874937</v>
+        <v>874443</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8756948827460486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8547537905549364</v>
+        <v>0.8518867872678072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8975854850685685</v>
+        <v>0.8970792357225387</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>28761</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19676</v>
+        <v>20162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41515</v>
+        <v>41326</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08602688773438553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0588521911473933</v>
+        <v>0.06030441588118315</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1241727733999402</v>
+        <v>0.1236085813896895</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -5808,19 +5808,19 @@
         <v>82980</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66846</v>
+        <v>66418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99836</v>
+        <v>100215</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2196626674243717</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1769530152732744</v>
+        <v>0.1758198424921809</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2642823449939967</v>
+        <v>0.2652855530285583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -5829,19 +5829,19 @@
         <v>111742</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92835</v>
+        <v>92543</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132079</v>
+        <v>132574</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.156920142592134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1303694449872212</v>
+        <v>0.1299600004655243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1854802290329534</v>
+        <v>0.1861755827628822</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>305569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292815</v>
+        <v>293004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314654</v>
+        <v>314168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9139731122656145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8758272266000598</v>
+        <v>0.8763914186103107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9411478088526068</v>
+        <v>0.9396955841188169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>276</v>
@@ -5879,19 +5879,19 @@
         <v>294782</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>277926</v>
+        <v>277547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>310916</v>
+        <v>311344</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7803373325756283</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7357176550060033</v>
+        <v>0.7347144469714416</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8230469847267253</v>
+        <v>0.824180157507819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>574</v>
@@ -5900,19 +5900,19 @@
         <v>600350</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>580013</v>
+        <v>579518</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619257</v>
+        <v>619549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.843079857407866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8145197709670465</v>
+        <v>0.8138244172371174</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8696305550127787</v>
+        <v>0.8700399995344756</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>32481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23851</v>
+        <v>23189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42915</v>
+        <v>43614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.126386429725262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09280767202498887</v>
+        <v>0.0902301127451642</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1669860599717878</v>
+        <v>0.1697039052705908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -6025,19 +6025,19 @@
         <v>110049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91396</v>
+        <v>88854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>132330</v>
+        <v>130283</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2750052600228041</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2283935041705598</v>
+        <v>0.222041286894547</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3306845441492512</v>
+        <v>0.3255701477781723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -6046,19 +6046,19 @@
         <v>142530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120622</v>
+        <v>120878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168534</v>
+        <v>166599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2168849614103045</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1835489948356213</v>
+        <v>0.1839384231118495</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2564547520569692</v>
+        <v>0.253510275519912</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>224517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>214083</v>
+        <v>213384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>233147</v>
+        <v>233809</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.873613570274738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8330139400282116</v>
+        <v>0.8302960947294091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.907192327975011</v>
+        <v>0.9097698872548357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -6096,19 +6096,19 @@
         <v>290120</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>267839</v>
+        <v>269886</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308773</v>
+        <v>311315</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7249947399771959</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6693154558507489</v>
+        <v>0.6744298522218278</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7716064958294402</v>
+        <v>0.7779587131054533</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>484</v>
@@ -6117,19 +6117,19 @@
         <v>514637</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488633</v>
+        <v>490568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>536545</v>
+        <v>536289</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7831150385896956</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7435452479430307</v>
+        <v>0.746489724480088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8164510051643786</v>
+        <v>0.8160615768881505</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>205975</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06068173036960494</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>386</v>
@@ -6242,19 +6242,19 @@
         <v>432259</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1219504919011357</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>581</v>
@@ -6263,19 +6263,19 @@
         <v>638234</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09197918935397437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3188375</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3155280</v>
+        <v>3160125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3214171</v>
+        <v>3217212</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9393182696303951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9295683864436581</v>
+        <v>0.9309955956620025</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9469179703635514</v>
+        <v>0.9478137863650289</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2952</v>
@@ -6313,19 +6313,19 @@
         <v>3112283</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3068987</v>
+        <v>3067203</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3150046</v>
+        <v>3154340</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8780495080988643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8658346939482168</v>
+        <v>0.8653311601545383</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8887031955462728</v>
+        <v>0.8899147870076288</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5988</v>
@@ -6334,19 +6334,19 @@
         <v>6300658</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6250147</v>
+        <v>6251393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6353114</v>
+        <v>6348483</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9080208106460256</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9007413079446637</v>
+        <v>0.9009209653774518</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9155804031084491</v>
+        <v>0.9149130436769066</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>11489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3242</v>
+        <v>3297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27777</v>
+        <v>28867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0281747604461881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007949239764073022</v>
+        <v>0.008084939144497177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06811512567411485</v>
+        <v>0.07078818859782675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6702,19 +6702,19 @@
         <v>28946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16362</v>
+        <v>15208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47231</v>
+        <v>46097</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07984800417172759</v>
+        <v>0.0798480041717276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04513537911699217</v>
+        <v>0.04195159498755896</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.130288039234785</v>
+        <v>0.1271595737680213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -6723,19 +6723,19 @@
         <v>40435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25298</v>
+        <v>23149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64784</v>
+        <v>60169</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05249261989264745</v>
+        <v>0.05249261989264743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03284134863981919</v>
+        <v>0.03005211797006587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08410227781623406</v>
+        <v>0.07811068208053164</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>396304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380016</v>
+        <v>378926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404551</v>
+        <v>404496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9718252395538121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318848743258855</v>
+        <v>0.9292118114021731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992050760235927</v>
+        <v>0.991915060855503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -6773,19 +6773,19 @@
         <v>333566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315281</v>
+        <v>316415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346150</v>
+        <v>347304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9201519958282723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8697119607652151</v>
+        <v>0.8728404262319791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9548646208830078</v>
+        <v>0.958048405012441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -6794,19 +6794,19 @@
         <v>729870</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705521</v>
+        <v>710136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745007</v>
+        <v>747156</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9475073801073527</v>
+        <v>0.9475073801073525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.915897722183766</v>
+        <v>0.9218893179194686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9671586513601809</v>
+        <v>0.9699478820299341</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>11693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5001</v>
+        <v>4173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24065</v>
+        <v>24258</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02451926961599128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01048711461241145</v>
+        <v>0.008749437377557573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05046314067817775</v>
+        <v>0.0508681053863555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -6919,19 +6919,19 @@
         <v>31339</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20195</v>
+        <v>20680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46018</v>
+        <v>45030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06254352942687456</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04030219572148115</v>
+        <v>0.04127027556089316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09183790030447037</v>
+        <v>0.08986521753861867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -6940,19 +6940,19 @@
         <v>43032</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30279</v>
+        <v>30627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62109</v>
+        <v>62376</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04400171614872651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03096126182281557</v>
+        <v>0.03131653800876574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0635081237450579</v>
+        <v>0.06378091191067238</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>465197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452825</v>
+        <v>452632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471889</v>
+        <v>472717</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9754807303840087</v>
+        <v>0.9754807303840088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9495368593218221</v>
+        <v>0.9491318946136446</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9895128853875885</v>
+        <v>0.9912505626224425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -6990,19 +6990,19 @@
         <v>469744</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>455065</v>
+        <v>456053</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480888</v>
+        <v>480403</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9374564705731254</v>
+        <v>0.9374564705731253</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9081620996955295</v>
+        <v>0.9101347824613814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9596978042785187</v>
+        <v>0.958729724439107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>730</v>
@@ -7011,19 +7011,19 @@
         <v>934941</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>915864</v>
+        <v>915597</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>947694</v>
+        <v>947346</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9559982838512735</v>
+        <v>0.9559982838512734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9364918762549423</v>
+        <v>0.9362190880893275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690387381771844</v>
+        <v>0.9686834619912341</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>32668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21676</v>
+        <v>22557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46335</v>
+        <v>46409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05261867636084657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0349149188137765</v>
+        <v>0.03633313131676279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07463300981512577</v>
+        <v>0.07475284293037708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -7136,19 +7136,19 @@
         <v>37814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28483</v>
+        <v>28339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48701</v>
+        <v>49590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06077995636984528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04578306070435776</v>
+        <v>0.04555033732228441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07828044798192084</v>
+        <v>0.07970812475294377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -7157,19 +7157,19 @@
         <v>70481</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56203</v>
+        <v>55289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88809</v>
+        <v>86975</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05670359218529811</v>
+        <v>0.0567035921852981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04521658760277483</v>
+        <v>0.04448153368675923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07144869041531984</v>
+        <v>0.06997331503686238</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>588169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>574502</v>
+        <v>574428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599161</v>
+        <v>598280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9473813236391534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.925366990184874</v>
+        <v>0.9252471570696237</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9650850811862235</v>
+        <v>0.9636668686832374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>795</v>
@@ -7207,19 +7207,19 @@
         <v>584325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>573438</v>
+        <v>572549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>593656</v>
+        <v>593800</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9392200436301547</v>
+        <v>0.9392200436301549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9217195520180788</v>
+        <v>0.9202918752470564</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9542169392956421</v>
+        <v>0.9544496626777155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1313</v>
@@ -7228,19 +7228,19 @@
         <v>1172495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1154167</v>
+        <v>1156001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1186773</v>
+        <v>1187687</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9432964078147019</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9285513095846806</v>
+        <v>0.9300266849631375</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9547834123972253</v>
+        <v>0.9555184663132406</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>45195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32736</v>
+        <v>32013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60185</v>
+        <v>60401</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06450770594553615</v>
+        <v>0.06450770594553613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04672460088172521</v>
+        <v>0.04569256026526669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08590258678306788</v>
+        <v>0.0862108915525738</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -7353,19 +7353,19 @@
         <v>65861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54287</v>
+        <v>54058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78984</v>
+        <v>79965</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08946162913157817</v>
+        <v>0.08946162913157818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07373939901063786</v>
+        <v>0.0734287095028839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1072865639315307</v>
+        <v>0.1086198298653581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -7374,19 +7374,19 @@
         <v>111056</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95171</v>
+        <v>93520</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133332</v>
+        <v>132108</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07729362413932811</v>
+        <v>0.07729362413932812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06623730663474046</v>
+        <v>0.06508853477202629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09279730242300072</v>
+        <v>0.09194527751276678</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>655422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>640432</v>
+        <v>640216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>667881</v>
+        <v>668604</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9354922940544639</v>
+        <v>0.9354922940544637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9140974132169321</v>
+        <v>0.9137891084474266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9532753991182747</v>
+        <v>0.9543074397347335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1042</v>
@@ -7424,19 +7424,19 @@
         <v>670335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>657212</v>
+        <v>656231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681909</v>
+        <v>682138</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.910538370868422</v>
+        <v>0.9105383708684218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8927134360684692</v>
+        <v>0.8913801701346415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9262606009893621</v>
+        <v>0.9265712904971158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1668</v>
@@ -7445,19 +7445,19 @@
         <v>1325757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1303481</v>
+        <v>1304705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1341642</v>
+        <v>1343293</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9227063758606719</v>
+        <v>0.9227063758606721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9072026975769995</v>
+        <v>0.9080547224872332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9337626933652597</v>
+        <v>0.9349114652279734</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>43657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32826</v>
+        <v>32307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56791</v>
+        <v>58043</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07164591507378729</v>
+        <v>0.07164591507378727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05387119747850921</v>
+        <v>0.05301948340523311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09320011562109135</v>
+        <v>0.095254986422453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -7570,19 +7570,19 @@
         <v>82038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69489</v>
+        <v>69473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96980</v>
+        <v>96336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1348123358297059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1141909672787274</v>
+        <v>0.1141634387795554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1593652059055146</v>
+        <v>0.1583079602338349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -7591,19 +7591,19 @@
         <v>125695</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108971</v>
+        <v>107856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144442</v>
+        <v>144718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.103208128783572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08947607138527504</v>
+        <v>0.08856063195010101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1186011952076697</v>
+        <v>0.1188272461907364</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>565689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>552555</v>
+        <v>551303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>576520</v>
+        <v>577039</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9283540849262129</v>
+        <v>0.9283540849262126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9067998843789086</v>
+        <v>0.9047450135775472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9461288025214909</v>
+        <v>0.946980516594767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>874</v>
@@ -7641,19 +7641,19 @@
         <v>526499</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>511557</v>
+        <v>512201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>539048</v>
+        <v>539064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8651876641702941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8406347940944855</v>
+        <v>0.841692039766165</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8858090327212728</v>
+        <v>0.8858365612204447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1489</v>
@@ -7662,19 +7662,19 @@
         <v>1092188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1073441</v>
+        <v>1073165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1108912</v>
+        <v>1110027</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8967918712164282</v>
+        <v>0.8967918712164278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8813988047923299</v>
+        <v>0.8811727538092634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.910523928614725</v>
+        <v>0.911439368049899</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>31152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23326</v>
+        <v>22772</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42202</v>
+        <v>42322</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07663585063480434</v>
+        <v>0.07663585063480435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05738343095335033</v>
+        <v>0.05601976837846916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1038200073531874</v>
+        <v>0.1041139844879086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -7787,19 +7787,19 @@
         <v>68749</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57692</v>
+        <v>58149</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80739</v>
+        <v>80814</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1565448384609054</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1313662959364319</v>
+        <v>0.13240738754904</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1838465429395806</v>
+        <v>0.1840168629407369</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -7808,19 +7808,19 @@
         <v>99901</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84334</v>
+        <v>85885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115800</v>
+        <v>114142</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1181340161365783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09972514546344273</v>
+        <v>0.1015602904512615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1369348426539238</v>
+        <v>0.1349743183837593</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>375341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>364291</v>
+        <v>364171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>383167</v>
+        <v>383721</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9233641493651955</v>
+        <v>0.9233641493651956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8961799926468128</v>
+        <v>0.8958860155120915</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9426165690466498</v>
+        <v>0.9439802316215309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>706</v>
@@ -7858,19 +7858,19 @@
         <v>370417</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>358427</v>
+        <v>358352</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>381474</v>
+        <v>381017</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8434551615390947</v>
+        <v>0.8434551615390946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.81615345706042</v>
+        <v>0.8159831370592628</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.868633704063568</v>
+        <v>0.86759261245096</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1232</v>
@@ -7879,19 +7879,19 @@
         <v>745759</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>729860</v>
+        <v>731518</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>761326</v>
+        <v>759775</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8818659838634217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.863065157346076</v>
+        <v>0.8650256816162404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002748545365573</v>
+        <v>0.8984397095487384</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>37255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28762</v>
+        <v>29128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48662</v>
+        <v>48707</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1203382578915423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0929044148248139</v>
+        <v>0.09408820397302303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1571866297071769</v>
+        <v>0.1573321770646953</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>220</v>
@@ -8004,19 +8004,19 @@
         <v>123261</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108647</v>
+        <v>110093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138184</v>
+        <v>138227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2661235172656005</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2345719295174185</v>
+        <v>0.23769385068651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2983420038455503</v>
+        <v>0.2984356364332345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>275</v>
@@ -8025,19 +8025,19 @@
         <v>160516</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>142544</v>
+        <v>143622</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179178</v>
+        <v>178374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2077187215248064</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1844622295180017</v>
+        <v>0.1858574251869545</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2318695337895113</v>
+        <v>0.2308280805499875</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>272328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>260921</v>
+        <v>260876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>280821</v>
+        <v>280455</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8796617421084576</v>
+        <v>0.8796617421084577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8428133702928231</v>
+        <v>0.8426678229353045</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9070955851751861</v>
+        <v>0.9059117960269768</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>658</v>
@@ -8075,19 +8075,19 @@
         <v>339911</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>324988</v>
+        <v>324945</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>354525</v>
+        <v>353079</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7338764827343996</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.70165799615445</v>
+        <v>0.701564363566766</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7654280704825817</v>
+        <v>0.7623061493134903</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1060</v>
@@ -8096,19 +8096,19 @@
         <v>612239</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>593577</v>
+        <v>594381</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>630211</v>
+        <v>629133</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7922812784751936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7681304662104886</v>
+        <v>0.7691719194500125</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8155377704819982</v>
+        <v>0.8141425748130456</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>213109</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>657</v>
@@ -8221,19 +8221,19 @@
         <v>438009</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1173403636037138</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>881</v>
@@ -8242,19 +8242,19 @@
         <v>651118</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08963175711066647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3318451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3287490</v>
+        <v>3284924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3348631</v>
+        <v>3345386</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9396558195276971</v>
+        <v>0.9396558195276968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9308888244703925</v>
+        <v>0.9301622900933747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9482016204892325</v>
+        <v>0.9472827455658545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4702</v>
@@ -8292,19 +8292,19 @@
         <v>3294797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3261642</v>
+        <v>3255958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3326523</v>
+        <v>3325102</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8826596363962862</v>
+        <v>0.8826596363962861</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8737776226769832</v>
+        <v>0.8722547364715787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8911587166643468</v>
+        <v>0.8907780276878834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7852</v>
@@ -8313,19 +8313,19 @@
         <v>6613248</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6568690</v>
+        <v>6565539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6660389</v>
+        <v>6659112</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9103682428893336</v>
+        <v>0.9103682428893333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9042344811905934</v>
+        <v>0.9038007368090192</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9168575639442904</v>
+        <v>0.916681795247154</v>
       </c>
     </row>
     <row r="27">
